--- a/data/pca/factorExposure/factorExposure_2015-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02142847582030244</v>
+        <v>-0.01229398957395273</v>
       </c>
       <c r="C2">
-        <v>0.02923794146310246</v>
+        <v>0.05473705198005226</v>
       </c>
       <c r="D2">
-        <v>-0.1397771701759188</v>
+        <v>-0.1230913740207498</v>
       </c>
       <c r="E2">
-        <v>-0.04632601348085652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03653735104707539</v>
+      </c>
+      <c r="F2">
+        <v>-0.03690974658882411</v>
+      </c>
+      <c r="G2">
+        <v>0.06019038116887297</v>
+      </c>
+      <c r="H2">
+        <v>-0.1331375436288766</v>
+      </c>
+      <c r="I2">
+        <v>-0.04319322197139303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04552020361789984</v>
+        <v>-0.01835665766603756</v>
       </c>
       <c r="C4">
-        <v>0.07274676192758087</v>
+        <v>0.1085980248196265</v>
       </c>
       <c r="D4">
-        <v>-0.09242732168177717</v>
+        <v>-0.1148590085419743</v>
       </c>
       <c r="E4">
-        <v>-0.1083681519361898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02294230378369644</v>
+      </c>
+      <c r="F4">
+        <v>-0.1011844523261739</v>
+      </c>
+      <c r="G4">
+        <v>-0.02190388921779389</v>
+      </c>
+      <c r="H4">
+        <v>-0.0308398018281306</v>
+      </c>
+      <c r="I4">
+        <v>0.09598756585596512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02875894571568368</v>
+        <v>-0.0330020484796478</v>
       </c>
       <c r="C6">
-        <v>0.01712013652950071</v>
+        <v>0.0413349397050887</v>
       </c>
       <c r="D6">
-        <v>-0.1159862624515262</v>
+        <v>-0.1068447951635931</v>
       </c>
       <c r="E6">
-        <v>-0.07053501065733986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.07374732566052265</v>
+      </c>
+      <c r="F6">
+        <v>-0.04711461479998175</v>
+      </c>
+      <c r="G6">
+        <v>-0.03759076665110989</v>
+      </c>
+      <c r="H6">
+        <v>-0.01906332932775394</v>
+      </c>
+      <c r="I6">
+        <v>0.002871309801033793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002241169356909078</v>
+        <v>-0.00636399627283803</v>
       </c>
       <c r="C7">
-        <v>0.02570649278336873</v>
+        <v>0.04052795800381023</v>
       </c>
       <c r="D7">
-        <v>-0.1069799036377984</v>
+        <v>-0.08881541945716454</v>
       </c>
       <c r="E7">
-        <v>-0.03387529026844779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05708669308908072</v>
+      </c>
+      <c r="F7">
+        <v>-0.01123196259087835</v>
+      </c>
+      <c r="G7">
+        <v>-0.07013328690012702</v>
+      </c>
+      <c r="H7">
+        <v>-0.04374338011804389</v>
+      </c>
+      <c r="I7">
+        <v>0.06057677826360552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003270240199806851</v>
+        <v>0.006393070332749919</v>
       </c>
       <c r="C8">
-        <v>0.02959435949783698</v>
+        <v>0.03950941753708136</v>
       </c>
       <c r="D8">
-        <v>-0.08203105429638183</v>
+        <v>-0.06426674591055127</v>
       </c>
       <c r="E8">
-        <v>-0.04851618432852281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04180276301305608</v>
+      </c>
+      <c r="F8">
+        <v>-0.04910164866791177</v>
+      </c>
+      <c r="G8">
+        <v>0.04051149631180927</v>
+      </c>
+      <c r="H8">
+        <v>-0.03773932337013513</v>
+      </c>
+      <c r="I8">
+        <v>0.03855619148916224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03437355969697273</v>
+        <v>-0.01403738698381794</v>
       </c>
       <c r="C9">
-        <v>0.06445072595903613</v>
+        <v>0.09035031917667016</v>
       </c>
       <c r="D9">
-        <v>-0.09659146992479684</v>
+        <v>-0.1011048842427707</v>
       </c>
       <c r="E9">
-        <v>-0.08914049664106954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02024773203570379</v>
+      </c>
+      <c r="F9">
+        <v>-0.06778176891626235</v>
+      </c>
+      <c r="G9">
+        <v>-0.04417870603061134</v>
+      </c>
+      <c r="H9">
+        <v>-0.03830300527401865</v>
+      </c>
+      <c r="I9">
+        <v>0.0553448219832985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1847244244157184</v>
+        <v>-0.2415282479842485</v>
       </c>
       <c r="C10">
-        <v>-0.1613691302868864</v>
+        <v>-0.08856329075681194</v>
       </c>
       <c r="D10">
-        <v>0.01890306718155145</v>
+        <v>0.01093723952377974</v>
       </c>
       <c r="E10">
-        <v>-0.04069716047315621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01772856515822215</v>
+      </c>
+      <c r="F10">
+        <v>-0.03934372515471054</v>
+      </c>
+      <c r="G10">
+        <v>0.01654862343933871</v>
+      </c>
+      <c r="H10">
+        <v>0.008961032112632421</v>
+      </c>
+      <c r="I10">
+        <v>-0.01045776929584195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01682964469079512</v>
+        <v>-0.01046237523590351</v>
       </c>
       <c r="C11">
-        <v>0.04205483902552047</v>
+        <v>0.05868819970038281</v>
       </c>
       <c r="D11">
-        <v>-0.04217713380207765</v>
+        <v>-0.0371459119345306</v>
       </c>
       <c r="E11">
-        <v>0.008623090735484437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02613374595406299</v>
+      </c>
+      <c r="F11">
+        <v>0.01254628093667622</v>
+      </c>
+      <c r="G11">
+        <v>-0.03679172826502188</v>
+      </c>
+      <c r="H11">
+        <v>-0.01842917749382931</v>
+      </c>
+      <c r="I11">
+        <v>0.04081422397488405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01546606663818986</v>
+        <v>-0.01047457169467905</v>
       </c>
       <c r="C12">
-        <v>0.04292032612857737</v>
+        <v>0.0516126825469482</v>
       </c>
       <c r="D12">
-        <v>-0.05513515481013963</v>
+        <v>-0.04450475609759087</v>
       </c>
       <c r="E12">
-        <v>-0.004741661015380347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02133264562707271</v>
+      </c>
+      <c r="F12">
+        <v>0.01511579219577668</v>
+      </c>
+      <c r="G12">
+        <v>-0.06062377076593375</v>
+      </c>
+      <c r="H12">
+        <v>-0.03395182115781625</v>
+      </c>
+      <c r="I12">
+        <v>0.01575439460018713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.007220195229908095</v>
+        <v>-0.002583221805575854</v>
       </c>
       <c r="C13">
-        <v>0.02689859752741705</v>
+        <v>0.0584056231487208</v>
       </c>
       <c r="D13">
-        <v>-0.1263055734306438</v>
+        <v>-0.1535488591340333</v>
       </c>
       <c r="E13">
-        <v>-0.068554829119992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04634170783933431</v>
+      </c>
+      <c r="F13">
+        <v>-0.03828815428448198</v>
+      </c>
+      <c r="G13">
+        <v>-0.03621362283686155</v>
+      </c>
+      <c r="H13">
+        <v>-0.102959886305445</v>
+      </c>
+      <c r="I13">
+        <v>-0.03627390743096459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003203940891601471</v>
+        <v>-0.003932660479115744</v>
       </c>
       <c r="C14">
-        <v>0.01944808542812707</v>
+        <v>0.0356356767618393</v>
       </c>
       <c r="D14">
-        <v>-0.07932216062448094</v>
+        <v>-0.08740963537051707</v>
       </c>
       <c r="E14">
-        <v>-0.02818182997748757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.06468338425135838</v>
+      </c>
+      <c r="F14">
+        <v>-0.0277313519688489</v>
+      </c>
+      <c r="G14">
+        <v>-0.07841265889498948</v>
+      </c>
+      <c r="H14">
+        <v>-0.1186646522390677</v>
+      </c>
+      <c r="I14">
+        <v>0.03919115026841046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.003251451032931313</v>
+        <v>0.00503043662156527</v>
       </c>
       <c r="C15">
-        <v>0.01260796753544764</v>
+        <v>0.02860589999145028</v>
       </c>
       <c r="D15">
-        <v>-0.03837601722463041</v>
+        <v>-0.05581769099502235</v>
       </c>
       <c r="E15">
-        <v>-0.006213697452096221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.02432169665708096</v>
+      </c>
+      <c r="F15">
+        <v>-0.009084104775965298</v>
+      </c>
+      <c r="G15">
+        <v>-0.01495190044395369</v>
+      </c>
+      <c r="H15">
+        <v>-0.04766700545707011</v>
+      </c>
+      <c r="I15">
+        <v>0.03704725411191663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01586116048795199</v>
+        <v>-0.009250870409508682</v>
       </c>
       <c r="C16">
-        <v>0.03859327727805688</v>
+        <v>0.05129398758006256</v>
       </c>
       <c r="D16">
-        <v>-0.04790684732086503</v>
+        <v>-0.04031981818900959</v>
       </c>
       <c r="E16">
-        <v>-0.003661344046731438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02724933652627541</v>
+      </c>
+      <c r="F16">
+        <v>0.006900949218924433</v>
+      </c>
+      <c r="G16">
+        <v>-0.04545566876197683</v>
+      </c>
+      <c r="H16">
+        <v>-0.01514873159904854</v>
+      </c>
+      <c r="I16">
+        <v>0.02687474179807356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0001756128664558483</v>
+        <v>0.00259819205366573</v>
       </c>
       <c r="C19">
-        <v>0.02204753061801587</v>
+        <v>0.01767365872602577</v>
       </c>
       <c r="D19">
-        <v>-0.06970963371878518</v>
+        <v>-0.04756008204661125</v>
       </c>
       <c r="E19">
-        <v>-0.04237075922608805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.00526433029120643</v>
+      </c>
+      <c r="F19">
+        <v>-0.01296567357784006</v>
+      </c>
+      <c r="G19">
+        <v>-0.01125307636250344</v>
+      </c>
+      <c r="H19">
+        <v>-0.04885474677646846</v>
+      </c>
+      <c r="I19">
+        <v>0.004390614740976711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002701860715430664</v>
+        <v>-0.004515591778708371</v>
       </c>
       <c r="C20">
-        <v>0.02686074493820155</v>
+        <v>0.04359517565213053</v>
       </c>
       <c r="D20">
-        <v>-0.07052298555162008</v>
+        <v>-0.08022704482399645</v>
       </c>
       <c r="E20">
-        <v>-0.05047369289660325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.03147422694304911</v>
+      </c>
+      <c r="F20">
+        <v>-0.02772118341477968</v>
+      </c>
+      <c r="G20">
+        <v>-0.0495706571670025</v>
+      </c>
+      <c r="H20">
+        <v>-0.02332819528492078</v>
+      </c>
+      <c r="I20">
+        <v>0.05442115384688805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01031865072964626</v>
+        <v>-0.004644010809602363</v>
       </c>
       <c r="C21">
-        <v>0.03220101811906768</v>
+        <v>0.05084969113932473</v>
       </c>
       <c r="D21">
-        <v>-0.1206360926357554</v>
+        <v>-0.1146776564170476</v>
       </c>
       <c r="E21">
-        <v>-0.1046143274842267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03851490000181484</v>
+      </c>
+      <c r="F21">
+        <v>-0.09007913824547475</v>
+      </c>
+      <c r="G21">
+        <v>-0.0751682174625997</v>
+      </c>
+      <c r="H21">
+        <v>-0.1905598044268567</v>
+      </c>
+      <c r="I21">
+        <v>0.00291216184379379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.004163702564532831</v>
+        <v>0.01134486542489715</v>
       </c>
       <c r="C22">
-        <v>0.07264749847907118</v>
+        <v>0.09546408888455472</v>
       </c>
       <c r="D22">
-        <v>-0.30803617530008</v>
+        <v>-0.2699958427098596</v>
       </c>
       <c r="E22">
-        <v>-0.0959421470903126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.09782301637663499</v>
+      </c>
+      <c r="F22">
+        <v>-0.04806128825889223</v>
+      </c>
+      <c r="G22">
+        <v>0.5269559388328579</v>
+      </c>
+      <c r="H22">
+        <v>0.15216366704166</v>
+      </c>
+      <c r="I22">
+        <v>-0.06301005471131806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00447675512638053</v>
+        <v>0.008166950156332679</v>
       </c>
       <c r="C23">
-        <v>0.07291061937778938</v>
+        <v>0.09720581000528969</v>
       </c>
       <c r="D23">
-        <v>-0.3065814265091703</v>
+        <v>-0.2723879748365693</v>
       </c>
       <c r="E23">
-        <v>-0.09601248278412725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.09264291035503572</v>
+      </c>
+      <c r="F23">
+        <v>-0.05064618812559463</v>
+      </c>
+      <c r="G23">
+        <v>0.5100607155501856</v>
+      </c>
+      <c r="H23">
+        <v>0.1437260530052329</v>
+      </c>
+      <c r="I23">
+        <v>-0.06140858300376449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02234985422346872</v>
+        <v>-0.01029323883670137</v>
       </c>
       <c r="C24">
-        <v>0.0588733246158068</v>
+        <v>0.0683999438084225</v>
       </c>
       <c r="D24">
-        <v>-0.05687753437970241</v>
+        <v>-0.04184698431002454</v>
       </c>
       <c r="E24">
-        <v>-0.005461686322017924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03254633702098517</v>
+      </c>
+      <c r="F24">
+        <v>0.005293667787717262</v>
+      </c>
+      <c r="G24">
+        <v>-0.04777565238701852</v>
+      </c>
+      <c r="H24">
+        <v>-0.04159392171915802</v>
+      </c>
+      <c r="I24">
+        <v>0.04406283499826577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02245875071936626</v>
+        <v>-0.0146716874517368</v>
       </c>
       <c r="C25">
-        <v>0.05087749583490844</v>
+        <v>0.06346492473825323</v>
       </c>
       <c r="D25">
-        <v>-0.05481078048492081</v>
+        <v>-0.04671665588658531</v>
       </c>
       <c r="E25">
-        <v>-0.0129378550387765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.02071271051254514</v>
+      </c>
+      <c r="F25">
+        <v>0.004993114837544802</v>
+      </c>
+      <c r="G25">
+        <v>-0.03767730760588147</v>
+      </c>
+      <c r="H25">
+        <v>-0.01373875113970964</v>
+      </c>
+      <c r="I25">
+        <v>0.02464032728383418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01048536849750556</v>
+        <v>-0.01793988355788166</v>
       </c>
       <c r="C26">
-        <v>0.01665669034027164</v>
+        <v>0.03022566076293466</v>
       </c>
       <c r="D26">
-        <v>-0.06211856995070452</v>
+        <v>-0.05352133070451864</v>
       </c>
       <c r="E26">
-        <v>-0.03732233213314622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0436048516481616</v>
+      </c>
+      <c r="F26">
+        <v>-0.04439581720349203</v>
+      </c>
+      <c r="G26">
+        <v>-0.05065278584230681</v>
+      </c>
+      <c r="H26">
+        <v>-0.08402071976219144</v>
+      </c>
+      <c r="I26">
+        <v>0.04185584293883861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2685018717536683</v>
+        <v>-0.3159033617560517</v>
       </c>
       <c r="C28">
-        <v>-0.1848738985013035</v>
+        <v>-0.08853894597655108</v>
       </c>
       <c r="D28">
-        <v>0.01220440024305873</v>
+        <v>0.02342451245888979</v>
       </c>
       <c r="E28">
-        <v>-0.03697746638433007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05217180258330004</v>
+      </c>
+      <c r="F28">
+        <v>-0.04160151849091252</v>
+      </c>
+      <c r="G28">
+        <v>0.05450016824754178</v>
+      </c>
+      <c r="H28">
+        <v>-0.03291471202167648</v>
+      </c>
+      <c r="I28">
+        <v>0.01788662756269995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001885398995599024</v>
+        <v>-0.001134236013878075</v>
       </c>
       <c r="C29">
-        <v>0.02344151711227957</v>
+        <v>0.04105346178624883</v>
       </c>
       <c r="D29">
-        <v>-0.07668536041738046</v>
+        <v>-0.09046959389131566</v>
       </c>
       <c r="E29">
-        <v>-0.03837027750806781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.07174745920868719</v>
+      </c>
+      <c r="F29">
+        <v>-0.03023028771841083</v>
+      </c>
+      <c r="G29">
+        <v>-0.1043043312884318</v>
+      </c>
+      <c r="H29">
+        <v>-0.1312033127307241</v>
+      </c>
+      <c r="I29">
+        <v>0.04309308993676331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02622779630260091</v>
+        <v>-0.01412700827228388</v>
       </c>
       <c r="C30">
-        <v>0.07181728356514687</v>
+        <v>0.09812161338536862</v>
       </c>
       <c r="D30">
-        <v>-0.1446711568066837</v>
+        <v>-0.1246166052469413</v>
       </c>
       <c r="E30">
-        <v>-0.05466217889546883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0646614889863301</v>
+      </c>
+      <c r="F30">
+        <v>-0.02343069734924017</v>
+      </c>
+      <c r="G30">
+        <v>-0.01532754195152614</v>
+      </c>
+      <c r="H30">
+        <v>-0.02547608595701999</v>
+      </c>
+      <c r="I30">
+        <v>0.06579973076438955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03528140212881906</v>
+        <v>-0.008491189199029924</v>
       </c>
       <c r="C31">
-        <v>0.08529852791273271</v>
+        <v>0.0954658299384908</v>
       </c>
       <c r="D31">
-        <v>-0.04987141535891015</v>
+        <v>-0.03362139043477586</v>
       </c>
       <c r="E31">
-        <v>-0.02221784114712082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02034613301973048</v>
+      </c>
+      <c r="F31">
+        <v>-0.01725326544409921</v>
+      </c>
+      <c r="G31">
+        <v>-0.01947525891454957</v>
+      </c>
+      <c r="H31">
+        <v>-0.03748033684034994</v>
+      </c>
+      <c r="I31">
+        <v>0.02763127683657245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01689674040655857</v>
+        <v>-0.01266051469089318</v>
       </c>
       <c r="C32">
-        <v>0.03981572636624913</v>
+        <v>0.0523405149435587</v>
       </c>
       <c r="D32">
-        <v>-0.07321470574372173</v>
+        <v>-0.07619161250818014</v>
       </c>
       <c r="E32">
-        <v>-0.06399541891643168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0009599948641418493</v>
+      </c>
+      <c r="F32">
+        <v>-0.04808844728982212</v>
+      </c>
+      <c r="G32">
+        <v>-0.02780937002791126</v>
+      </c>
+      <c r="H32">
+        <v>-0.06344442826867266</v>
+      </c>
+      <c r="I32">
+        <v>0.01073894901926379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006804974256299174</v>
+        <v>-0.006988021868332025</v>
       </c>
       <c r="C33">
-        <v>0.04274056312382766</v>
+        <v>0.06389992652260833</v>
       </c>
       <c r="D33">
-        <v>-0.109032150495976</v>
+        <v>-0.1119227346224386</v>
       </c>
       <c r="E33">
-        <v>-0.05874993352501248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04000685105804413</v>
+      </c>
+      <c r="F33">
+        <v>-0.02989088867142146</v>
+      </c>
+      <c r="G33">
+        <v>-0.03549135076780127</v>
+      </c>
+      <c r="H33">
+        <v>-0.04263616334393503</v>
+      </c>
+      <c r="I33">
+        <v>0.02744618808458364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02017050002009626</v>
+        <v>-0.008813627143377221</v>
       </c>
       <c r="C34">
-        <v>0.06050611363833104</v>
+        <v>0.06325557010548302</v>
       </c>
       <c r="D34">
-        <v>-0.05318788182791653</v>
+        <v>-0.02336712887030474</v>
       </c>
       <c r="E34">
-        <v>0.03669980990682638</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02913872049455454</v>
+      </c>
+      <c r="F34">
+        <v>0.03873509767399838</v>
+      </c>
+      <c r="G34">
+        <v>-0.03280123542840827</v>
+      </c>
+      <c r="H34">
+        <v>-0.02824959102039838</v>
+      </c>
+      <c r="I34">
+        <v>0.02034568971998987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.003316007433524444</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01331596278818579</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03210297457712589</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.009825291534887428</v>
+      </c>
+      <c r="F35">
+        <v>-0.01623532815764109</v>
+      </c>
+      <c r="G35">
+        <v>-0.04356882844710741</v>
+      </c>
+      <c r="H35">
+        <v>-0.04448118591935867</v>
+      </c>
+      <c r="I35">
+        <v>0.02678609876041198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.007561283619836515</v>
+        <v>-0.01146700339119454</v>
       </c>
       <c r="C36">
-        <v>0.009477198422464509</v>
+        <v>0.02432012507886575</v>
       </c>
       <c r="D36">
-        <v>-0.06502151958087878</v>
+        <v>-0.06576598989416983</v>
       </c>
       <c r="E36">
-        <v>-0.05926955689969266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03480348557347996</v>
+      </c>
+      <c r="F36">
+        <v>-0.05003573609745448</v>
+      </c>
+      <c r="G36">
+        <v>-0.03504111850840114</v>
+      </c>
+      <c r="H36">
+        <v>-0.05581887741354371</v>
+      </c>
+      <c r="I36">
+        <v>0.03090158357441427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005418895168807705</v>
+        <v>-0.009986283576954502</v>
       </c>
       <c r="C38">
-        <v>0.009419476135680241</v>
+        <v>0.02807037371411653</v>
       </c>
       <c r="D38">
-        <v>-0.07622524874282362</v>
+        <v>-0.08577654847951344</v>
       </c>
       <c r="E38">
-        <v>-0.02020868853380385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01922789948477781</v>
+      </c>
+      <c r="F38">
+        <v>-0.005127264707195099</v>
+      </c>
+      <c r="G38">
+        <v>-0.01257240924685388</v>
+      </c>
+      <c r="H38">
+        <v>-0.05093778928813621</v>
+      </c>
+      <c r="I38">
+        <v>0.06434597742640326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01561066940858166</v>
+        <v>-0.004029914998175652</v>
       </c>
       <c r="C39">
-        <v>0.06199362270398348</v>
+        <v>0.08314155094285861</v>
       </c>
       <c r="D39">
-        <v>-0.1003733274832492</v>
+        <v>-0.08497648336986517</v>
       </c>
       <c r="E39">
-        <v>-0.01367170795371357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05971953767027935</v>
+      </c>
+      <c r="F39">
+        <v>0.006062980711080211</v>
+      </c>
+      <c r="G39">
+        <v>-0.07280946705986434</v>
+      </c>
+      <c r="H39">
+        <v>-0.06236395219140062</v>
+      </c>
+      <c r="I39">
+        <v>0.05495613016132184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01955683760047279</v>
+        <v>-0.01428542545875571</v>
       </c>
       <c r="C40">
-        <v>0.02291860907973749</v>
+        <v>0.04341417984268497</v>
       </c>
       <c r="D40">
-        <v>-0.1133965392272877</v>
+        <v>-0.0899494126200719</v>
       </c>
       <c r="E40">
-        <v>-0.01079928167086827</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05855064998398599</v>
+      </c>
+      <c r="F40">
+        <v>0.02571280518524239</v>
+      </c>
+      <c r="G40">
+        <v>0.009970009939316437</v>
+      </c>
+      <c r="H40">
+        <v>-0.09634214363848555</v>
+      </c>
+      <c r="I40">
+        <v>0.00623336166814297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.008750947201434425</v>
+        <v>-0.01631971730738756</v>
       </c>
       <c r="C41">
-        <v>0.005844102504813111</v>
+        <v>0.02249602035402055</v>
       </c>
       <c r="D41">
-        <v>-0.03329818409441603</v>
+        <v>-0.04304826652224038</v>
       </c>
       <c r="E41">
-        <v>-0.03397022477489988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0004790729422784038</v>
+      </c>
+      <c r="F41">
+        <v>-0.02291197744372225</v>
+      </c>
+      <c r="G41">
+        <v>-0.02285057186665721</v>
+      </c>
+      <c r="H41">
+        <v>-0.03084555390371496</v>
+      </c>
+      <c r="I41">
+        <v>0.02443939704474916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0006428628512183818</v>
+        <v>-0.008747192982059138</v>
       </c>
       <c r="C43">
-        <v>0.004661333612673907</v>
+        <v>0.0182494619583006</v>
       </c>
       <c r="D43">
-        <v>-0.0494524212956329</v>
+        <v>-0.05039420071534816</v>
       </c>
       <c r="E43">
-        <v>-0.03008486368494955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01603106851841402</v>
+      </c>
+      <c r="F43">
+        <v>-0.02269313042297221</v>
+      </c>
+      <c r="G43">
+        <v>-0.0285478763495231</v>
+      </c>
+      <c r="H43">
+        <v>-0.03735252720228348</v>
+      </c>
+      <c r="I43">
+        <v>0.04526211960180383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02038575092180276</v>
+        <v>-0.01027969362565508</v>
       </c>
       <c r="C44">
-        <v>0.02514647002823431</v>
+        <v>0.04907276557786808</v>
       </c>
       <c r="D44">
-        <v>-0.08377069180716049</v>
+        <v>-0.09826580269303642</v>
       </c>
       <c r="E44">
-        <v>-0.06748870265725061</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04693695773417512</v>
+      </c>
+      <c r="F44">
+        <v>-0.04092667323406456</v>
+      </c>
+      <c r="G44">
+        <v>-0.009474287272258174</v>
+      </c>
+      <c r="H44">
+        <v>-0.05654431470543069</v>
+      </c>
+      <c r="I44">
+        <v>0.05004200731891264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005136290130987965</v>
+        <v>0.001458847158151446</v>
       </c>
       <c r="C46">
-        <v>0.03180063034226003</v>
+        <v>0.04320480167277254</v>
       </c>
       <c r="D46">
-        <v>-0.07349710841942415</v>
+        <v>-0.06659867155641708</v>
       </c>
       <c r="E46">
-        <v>-0.03552953149408907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0519070062462894</v>
+      </c>
+      <c r="F46">
+        <v>-0.03434079729781504</v>
+      </c>
+      <c r="G46">
+        <v>-0.06343455815803746</v>
+      </c>
+      <c r="H46">
+        <v>-0.1010290461360903</v>
+      </c>
+      <c r="I46">
+        <v>0.06194942770881636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07482638715429714</v>
+        <v>-0.03083503877294438</v>
       </c>
       <c r="C47">
-        <v>0.1100290017282444</v>
+        <v>0.1274171848000885</v>
       </c>
       <c r="D47">
-        <v>-0.04284575297598611</v>
+        <v>-0.01807832736449998</v>
       </c>
       <c r="E47">
-        <v>-0.02340186348983057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01132991876684385</v>
+      </c>
+      <c r="F47">
+        <v>0.004477639818103757</v>
+      </c>
+      <c r="G47">
+        <v>-0.05454230364363245</v>
+      </c>
+      <c r="H47">
+        <v>-0.02009462306346785</v>
+      </c>
+      <c r="I47">
+        <v>0.03429985179540054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009861018594965446</v>
+        <v>-0.01481085444096011</v>
       </c>
       <c r="C48">
-        <v>0.01990005816590168</v>
+        <v>0.03535538293556003</v>
       </c>
       <c r="D48">
-        <v>-0.06356843913688791</v>
+        <v>-0.06796503021603501</v>
       </c>
       <c r="E48">
-        <v>-0.06143455531657945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02541773490866073</v>
+      </c>
+      <c r="F48">
+        <v>-0.05632079678005248</v>
+      </c>
+      <c r="G48">
+        <v>-0.05267401795165611</v>
+      </c>
+      <c r="H48">
+        <v>-0.08693769490733179</v>
+      </c>
+      <c r="I48">
+        <v>0.06166226307024109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03071817279041352</v>
+        <v>-0.01220714536328748</v>
       </c>
       <c r="C50">
-        <v>0.05943805343401796</v>
+        <v>0.07640145383612401</v>
       </c>
       <c r="D50">
-        <v>-0.05353450303450231</v>
+        <v>-0.04459650892634928</v>
       </c>
       <c r="E50">
-        <v>-0.01693387438321334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01804603109259461</v>
+      </c>
+      <c r="F50">
+        <v>-0.01058901085095877</v>
+      </c>
+      <c r="G50">
+        <v>-0.008531556926894326</v>
+      </c>
+      <c r="H50">
+        <v>-0.02250406962472712</v>
+      </c>
+      <c r="I50">
+        <v>0.03171660212388868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00440121490659277</v>
+        <v>0.0005407817409065246</v>
       </c>
       <c r="C51">
-        <v>0.007742076576027926</v>
+        <v>0.01888331648311995</v>
       </c>
       <c r="D51">
-        <v>-0.05861499027800694</v>
+        <v>-0.04529387516293657</v>
       </c>
       <c r="E51">
-        <v>-0.02495997744410707</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04036631499515853</v>
+      </c>
+      <c r="F51">
+        <v>-0.03808227004153097</v>
+      </c>
+      <c r="G51">
+        <v>-0.0108369073867214</v>
+      </c>
+      <c r="H51">
+        <v>-0.07078011855267818</v>
+      </c>
+      <c r="I51">
+        <v>0.02081180874969691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.105814486586569</v>
+        <v>-0.0543716544885496</v>
       </c>
       <c r="C53">
-        <v>0.1296934102174574</v>
+        <v>0.1599209781542009</v>
       </c>
       <c r="D53">
-        <v>0.01796553942904191</v>
+        <v>0.02701007003656148</v>
       </c>
       <c r="E53">
-        <v>-0.03802191352186036</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03515742977661573</v>
+      </c>
+      <c r="F53">
+        <v>-0.04082230794749814</v>
+      </c>
+      <c r="G53">
+        <v>-0.007763757730511816</v>
+      </c>
+      <c r="H53">
+        <v>-0.01210386233410107</v>
+      </c>
+      <c r="I53">
+        <v>0.02060194570062701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01153444858219152</v>
+        <v>-0.01112736624261877</v>
       </c>
       <c r="C54">
-        <v>0.02437539597264562</v>
+        <v>0.04134914174329649</v>
       </c>
       <c r="D54">
-        <v>-0.08482180301705211</v>
+        <v>-0.0737253358976353</v>
       </c>
       <c r="E54">
-        <v>-0.02028244254828988</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02504531206299502</v>
+      </c>
+      <c r="F54">
+        <v>-0.005275430041974939</v>
+      </c>
+      <c r="G54">
+        <v>-0.02672228700691552</v>
+      </c>
+      <c r="H54">
+        <v>-0.06366207836211801</v>
+      </c>
+      <c r="I54">
+        <v>0.06374345482205568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09145466087716136</v>
+        <v>-0.04172434275288477</v>
       </c>
       <c r="C55">
-        <v>0.1102972092332905</v>
+        <v>0.1308120592972339</v>
       </c>
       <c r="D55">
-        <v>0.001462249538855417</v>
+        <v>0.04368166326284673</v>
       </c>
       <c r="E55">
-        <v>0.006042038907100775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0008941443880654248</v>
+      </c>
+      <c r="F55">
+        <v>-0.002244098850164457</v>
+      </c>
+      <c r="G55">
+        <v>0.003063645029957106</v>
+      </c>
+      <c r="H55">
+        <v>-0.01273818964530184</v>
+      </c>
+      <c r="I55">
+        <v>-0.003601771083202425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1287058375808015</v>
+        <v>-0.05487646311292782</v>
       </c>
       <c r="C56">
-        <v>0.1505938444417559</v>
+        <v>0.1882328725746907</v>
       </c>
       <c r="D56">
-        <v>-0.004900278326129158</v>
+        <v>0.04226792319127492</v>
       </c>
       <c r="E56">
-        <v>0.00611583872609032</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03430327158695468</v>
+      </c>
+      <c r="F56">
+        <v>-0.007271609649002772</v>
+      </c>
+      <c r="G56">
+        <v>0.03917197594437567</v>
+      </c>
+      <c r="H56">
+        <v>-0.03904957712324991</v>
+      </c>
+      <c r="I56">
+        <v>0.01388953467638077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.00382402080355174</v>
+        <v>-0.004233045544757954</v>
       </c>
       <c r="C58">
-        <v>0.01898785847376255</v>
+        <v>0.06475125206614037</v>
       </c>
       <c r="D58">
-        <v>-0.2157166431938653</v>
+        <v>-0.2777441897619224</v>
       </c>
       <c r="E58">
-        <v>-0.1503133988960586</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04757697907702512</v>
+      </c>
+      <c r="F58">
+        <v>-0.1401679231783454</v>
+      </c>
+      <c r="G58">
+        <v>0.1543163555170625</v>
+      </c>
+      <c r="H58">
+        <v>0.006361171713713744</v>
+      </c>
+      <c r="I58">
+        <v>0.04348299888382732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1888451298009482</v>
+        <v>-0.2560613374114609</v>
       </c>
       <c r="C59">
-        <v>-0.1351010979243243</v>
+        <v>-0.05622833750721398</v>
       </c>
       <c r="D59">
-        <v>-0.03766335078556208</v>
+        <v>-0.04736197228998873</v>
       </c>
       <c r="E59">
-        <v>-0.03390915849688333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02024513101283379</v>
+      </c>
+      <c r="F59">
+        <v>-0.02065927206352447</v>
+      </c>
+      <c r="G59">
+        <v>0.01310573250144794</v>
+      </c>
+      <c r="H59">
+        <v>-0.02088802660950663</v>
+      </c>
+      <c r="I59">
+        <v>-0.02957291104543119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1834575635702247</v>
+        <v>-0.1514754463333759</v>
       </c>
       <c r="C60">
-        <v>0.1075274891053294</v>
+        <v>0.1755136940742026</v>
       </c>
       <c r="D60">
-        <v>-0.207256359171437</v>
+        <v>-0.0748823238648218</v>
       </c>
       <c r="E60">
-        <v>0.05140164856776249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1475493318544733</v>
+      </c>
+      <c r="F60">
+        <v>0.1954766585802764</v>
+      </c>
+      <c r="G60">
+        <v>-0.08634476077064426</v>
+      </c>
+      <c r="H60">
+        <v>0.2456736061430569</v>
+      </c>
+      <c r="I60">
+        <v>-0.2248867262649132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02543030860915957</v>
+        <v>-0.01281651698768134</v>
       </c>
       <c r="C61">
-        <v>0.05724474081612383</v>
+        <v>0.07914753227525538</v>
       </c>
       <c r="D61">
-        <v>-0.07739867320364686</v>
+        <v>-0.06379385352626614</v>
       </c>
       <c r="E61">
-        <v>-0.004117286553317391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04251008016017448</v>
+      </c>
+      <c r="F61">
+        <v>0.0152843554445712</v>
+      </c>
+      <c r="G61">
+        <v>-0.06998807186939177</v>
+      </c>
+      <c r="H61">
+        <v>-0.04863782834913913</v>
+      </c>
+      <c r="I61">
+        <v>0.03640854870254193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01061435610265954</v>
+        <v>-0.009984964167329101</v>
       </c>
       <c r="C63">
-        <v>0.02782097108645084</v>
+        <v>0.04177788221979594</v>
       </c>
       <c r="D63">
-        <v>-0.07601527115674167</v>
+        <v>-0.05229178684114188</v>
       </c>
       <c r="E63">
-        <v>-0.03184386364943894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0594232784062191</v>
+      </c>
+      <c r="F63">
+        <v>-0.02369763920643524</v>
+      </c>
+      <c r="G63">
+        <v>-0.04120271604847772</v>
+      </c>
+      <c r="H63">
+        <v>-0.05472526420264713</v>
+      </c>
+      <c r="I63">
+        <v>0.04481562937363776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05274396436099346</v>
+        <v>-0.01609403653279128</v>
       </c>
       <c r="C64">
-        <v>0.08625577583755578</v>
+        <v>0.1013269831738826</v>
       </c>
       <c r="D64">
-        <v>-0.01348276326731879</v>
+        <v>-0.007674542127885765</v>
       </c>
       <c r="E64">
-        <v>-0.02409516615279597</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02286898805804122</v>
+      </c>
+      <c r="F64">
+        <v>-0.02056568925044945</v>
+      </c>
+      <c r="G64">
+        <v>-0.04879824946757658</v>
+      </c>
+      <c r="H64">
+        <v>-0.009084503926515211</v>
+      </c>
+      <c r="I64">
+        <v>0.04646316514476211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02661484336633279</v>
+        <v>-0.02385888113046055</v>
       </c>
       <c r="C65">
-        <v>0.02089661458820115</v>
+        <v>0.04855081769889371</v>
       </c>
       <c r="D65">
-        <v>-0.1018021810875157</v>
+        <v>-0.1033396582616393</v>
       </c>
       <c r="E65">
-        <v>-0.03294786444574783</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05601661173144618</v>
+      </c>
+      <c r="F65">
+        <v>0.002875008407073709</v>
+      </c>
+      <c r="G65">
+        <v>-0.03652735172037676</v>
+      </c>
+      <c r="H65">
+        <v>0.02960841766882887</v>
+      </c>
+      <c r="I65">
+        <v>0.02646063945826496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02216031439072758</v>
+        <v>-0.003399238145400934</v>
       </c>
       <c r="C66">
-        <v>0.07325077816468498</v>
+        <v>0.1035169318201761</v>
       </c>
       <c r="D66">
-        <v>-0.1203487985052662</v>
+        <v>-0.1101792027959826</v>
       </c>
       <c r="E66">
-        <v>-0.01582471516318993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05510427287575664</v>
+      </c>
+      <c r="F66">
+        <v>0.006184599912913932</v>
+      </c>
+      <c r="G66">
+        <v>-0.03865725845293282</v>
+      </c>
+      <c r="H66">
+        <v>-0.0509019275447199</v>
+      </c>
+      <c r="I66">
+        <v>0.04669416781275128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02167753612459981</v>
+        <v>-0.01952234118281932</v>
       </c>
       <c r="C67">
-        <v>0.0221686448825945</v>
+        <v>0.03827174463654546</v>
       </c>
       <c r="D67">
-        <v>-0.04558959326821976</v>
+        <v>-0.04458981680523187</v>
       </c>
       <c r="E67">
-        <v>0.0132711726539714</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02154986053045736</v>
+      </c>
+      <c r="F67">
+        <v>0.02594122383473329</v>
+      </c>
+      <c r="G67">
+        <v>-0.02607461561018243</v>
+      </c>
+      <c r="H67">
+        <v>-0.04105534233224124</v>
+      </c>
+      <c r="I67">
+        <v>0.05224338010538123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2091030962245692</v>
+        <v>-0.2770365650615498</v>
       </c>
       <c r="C68">
-        <v>-0.146601871596241</v>
+        <v>-0.06548242953771952</v>
       </c>
       <c r="D68">
-        <v>-0.02620147862191037</v>
+        <v>-0.0279404640021596</v>
       </c>
       <c r="E68">
-        <v>-0.0226980336988783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001318280152405856</v>
+      </c>
+      <c r="F68">
+        <v>-0.0275893717427045</v>
+      </c>
+      <c r="G68">
+        <v>0.08230100278044435</v>
+      </c>
+      <c r="H68">
+        <v>0.004339929397604216</v>
+      </c>
+      <c r="I68">
+        <v>-0.01307609455133086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05222989065837168</v>
+        <v>-0.01436057453800099</v>
       </c>
       <c r="C69">
-        <v>0.1205983755392794</v>
+        <v>0.1186322665241256</v>
       </c>
       <c r="D69">
-        <v>-0.06657466819006097</v>
+        <v>-0.02023804586075262</v>
       </c>
       <c r="E69">
-        <v>-0.01841226962122413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.009354741011276358</v>
+      </c>
+      <c r="F69">
+        <v>0.01203521984656364</v>
+      </c>
+      <c r="G69">
+        <v>-0.03621560968086654</v>
+      </c>
+      <c r="H69">
+        <v>-0.02429586615861189</v>
+      </c>
+      <c r="I69">
+        <v>0.01921192223645213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2211704922185056</v>
+        <v>-0.2755448463469543</v>
       </c>
       <c r="C71">
-        <v>-0.1680845513010927</v>
+        <v>-0.07992229308330755</v>
       </c>
       <c r="D71">
-        <v>-0.02269455778124744</v>
+        <v>-0.01401234692691293</v>
       </c>
       <c r="E71">
-        <v>-0.01180229180926999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002022864505696634</v>
+      </c>
+      <c r="F71">
+        <v>-0.01477261676034494</v>
+      </c>
+      <c r="G71">
+        <v>0.03325540103499081</v>
+      </c>
+      <c r="H71">
+        <v>-0.01661993710406966</v>
+      </c>
+      <c r="I71">
+        <v>0.01525252103162523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1003732654057008</v>
+        <v>-0.05958353163321977</v>
       </c>
       <c r="C72">
-        <v>0.07777226232336741</v>
+        <v>0.1279523431084385</v>
       </c>
       <c r="D72">
-        <v>-0.1164494313490591</v>
+        <v>-0.05607483470885491</v>
       </c>
       <c r="E72">
-        <v>-0.006078844902480272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07382498491581874</v>
+      </c>
+      <c r="F72">
+        <v>0.02097978041154707</v>
+      </c>
+      <c r="G72">
+        <v>-0.06531987879577833</v>
+      </c>
+      <c r="H72">
+        <v>-0.007489110161944196</v>
+      </c>
+      <c r="I72">
+        <v>0.01525902672268887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1739850150717365</v>
+        <v>-0.1478655996148481</v>
       </c>
       <c r="C73">
-        <v>0.0765339045621945</v>
+        <v>0.1627270605228083</v>
       </c>
       <c r="D73">
-        <v>-0.2484234231872802</v>
+        <v>-0.08348509727040583</v>
       </c>
       <c r="E73">
-        <v>0.1063058900473707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2777750883955843</v>
+      </c>
+      <c r="F73">
+        <v>0.2866116239238609</v>
+      </c>
+      <c r="G73">
+        <v>-0.2648389768255309</v>
+      </c>
+      <c r="H73">
+        <v>0.3232253032747168</v>
+      </c>
+      <c r="I73">
+        <v>-0.1880537728391152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1024540720332825</v>
+        <v>-0.05176725712195033</v>
       </c>
       <c r="C74">
-        <v>0.1194101769871428</v>
+        <v>0.1432894946845192</v>
       </c>
       <c r="D74">
-        <v>0.03963506056884813</v>
+        <v>0.05200293635734905</v>
       </c>
       <c r="E74">
-        <v>-0.02251661901217562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01757376088620189</v>
+      </c>
+      <c r="F74">
+        <v>-0.02782475423552971</v>
+      </c>
+      <c r="G74">
+        <v>0.007138247121107766</v>
+      </c>
+      <c r="H74">
+        <v>0.01721896867297994</v>
+      </c>
+      <c r="I74">
+        <v>-0.01310280359430826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2188737196642409</v>
+        <v>-0.09720882020799687</v>
       </c>
       <c r="C75">
-        <v>0.2070587342063735</v>
+        <v>0.2634770055070107</v>
       </c>
       <c r="D75">
-        <v>0.08558121188713096</v>
+        <v>0.1288104883755029</v>
       </c>
       <c r="E75">
-        <v>0.07736055625958206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1012399881267876</v>
+      </c>
+      <c r="F75">
+        <v>0.04418660335181524</v>
+      </c>
+      <c r="G75">
+        <v>0.09269918942378368</v>
+      </c>
+      <c r="H75">
+        <v>-0.04978496933536153</v>
+      </c>
+      <c r="I75">
+        <v>0.08581296434718798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.132114835973773</v>
+        <v>-0.05670912661838384</v>
       </c>
       <c r="C76">
-        <v>0.1417577704125097</v>
+        <v>0.1780319123323296</v>
       </c>
       <c r="D76">
-        <v>0.001816498676181735</v>
+        <v>0.05274109848434327</v>
       </c>
       <c r="E76">
-        <v>0.01229717550243506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02708457698432945</v>
+      </c>
+      <c r="F76">
+        <v>0.00277743542682707</v>
+      </c>
+      <c r="G76">
+        <v>0.02683295450021985</v>
+      </c>
+      <c r="H76">
+        <v>-0.04693220693774301</v>
+      </c>
+      <c r="I76">
+        <v>0.0371619552039364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01416197522642209</v>
+        <v>0.001135633238465512</v>
       </c>
       <c r="C77">
-        <v>0.06901271976552617</v>
+        <v>0.1097768418887471</v>
       </c>
       <c r="D77">
-        <v>-0.02807111161250575</v>
+        <v>-0.3982808606020892</v>
       </c>
       <c r="E77">
-        <v>-0.07909856562792628</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8189079429629007</v>
+      </c>
+      <c r="F77">
+        <v>0.2112497644417188</v>
+      </c>
+      <c r="G77">
+        <v>-0.08905675483843677</v>
+      </c>
+      <c r="H77">
+        <v>0.1921806046354353</v>
+      </c>
+      <c r="I77">
+        <v>-0.05338325771495737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02998575304278525</v>
+        <v>-0.01741806441750552</v>
       </c>
       <c r="C78">
-        <v>0.07741724389283358</v>
+        <v>0.0963287582528468</v>
       </c>
       <c r="D78">
-        <v>-0.138572384933986</v>
+        <v>-0.09721045811038363</v>
       </c>
       <c r="E78">
-        <v>-0.07686672809907977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06447316628778067</v>
+      </c>
+      <c r="F78">
+        <v>-0.05264587410648618</v>
+      </c>
+      <c r="G78">
+        <v>0.008384696740504927</v>
+      </c>
+      <c r="H78">
+        <v>-0.0869810407146174</v>
+      </c>
+      <c r="I78">
+        <v>-0.0202760303088632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1015135585485907</v>
+        <v>-0.04085332854467685</v>
       </c>
       <c r="C79">
-        <v>0.1949915099459878</v>
+        <v>0.2025613861331206</v>
       </c>
       <c r="D79">
-        <v>0.3832117568859816</v>
+        <v>0.1290242796092359</v>
       </c>
       <c r="E79">
-        <v>-0.806070169041893</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1059598285259995</v>
+      </c>
+      <c r="F79">
+        <v>-0.788290262073706</v>
+      </c>
+      <c r="G79">
+        <v>-0.2045553629847636</v>
+      </c>
+      <c r="H79">
+        <v>0.3871033053250034</v>
+      </c>
+      <c r="I79">
+        <v>-0.1517578861230331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.002205342903211564</v>
+        <v>-0.00587001493968288</v>
       </c>
       <c r="C80">
-        <v>0.04542910016940833</v>
+        <v>0.04522812717814636</v>
       </c>
       <c r="D80">
-        <v>-0.05068362713071991</v>
+        <v>-0.0358064602660572</v>
       </c>
       <c r="E80">
-        <v>-0.009524655844795041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05110303416070812</v>
+      </c>
+      <c r="F80">
+        <v>-0.00223275570769639</v>
+      </c>
+      <c r="G80">
+        <v>-0.01979975255726152</v>
+      </c>
+      <c r="H80">
+        <v>-0.05094045930299269</v>
+      </c>
+      <c r="I80">
+        <v>-0.07441955864916527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1107938017825376</v>
+        <v>-0.03935549017061865</v>
       </c>
       <c r="C81">
-        <v>0.1376826978403445</v>
+        <v>0.1621612720470199</v>
       </c>
       <c r="D81">
-        <v>0.08315691204702304</v>
+        <v>0.07842319576246119</v>
       </c>
       <c r="E81">
-        <v>-0.009500801659982988</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0560566017620182</v>
+      </c>
+      <c r="F81">
+        <v>-0.05447651590558481</v>
+      </c>
+      <c r="G81">
+        <v>0.02506008918781566</v>
+      </c>
+      <c r="H81">
+        <v>-0.08993023298686142</v>
+      </c>
+      <c r="I81">
+        <v>0.02739399299737407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2307448000103252</v>
+        <v>-0.08287773045579097</v>
       </c>
       <c r="C82">
-        <v>0.3000726439482529</v>
+        <v>0.305965988004512</v>
       </c>
       <c r="D82">
-        <v>0.1539351834910979</v>
+        <v>0.2358227614473577</v>
       </c>
       <c r="E82">
-        <v>0.2280076823768267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08184694723548272</v>
+      </c>
+      <c r="F82">
+        <v>0.129696078498173</v>
+      </c>
+      <c r="G82">
+        <v>0.05527130719978795</v>
+      </c>
+      <c r="H82">
+        <v>-0.1505707462235557</v>
+      </c>
+      <c r="I82">
+        <v>0.0520706812261917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01083170249263689</v>
+        <v>0.01182003966365781</v>
       </c>
       <c r="C83">
-        <v>0.05284876791046606</v>
+        <v>0.02077213922383549</v>
       </c>
       <c r="D83">
-        <v>-0.001378288500572073</v>
+        <v>-0.0227699622619734</v>
       </c>
       <c r="E83">
-        <v>-0.03611792398198631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0927394902714435</v>
+      </c>
+      <c r="F83">
+        <v>-0.06248595411041121</v>
+      </c>
+      <c r="G83">
+        <v>0.002451803930799368</v>
+      </c>
+      <c r="H83">
+        <v>-0.4604097747930267</v>
+      </c>
+      <c r="I83">
+        <v>-0.8115276544451157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0003162685255131418</v>
+        <v>0.004607846667550885</v>
       </c>
       <c r="C84">
-        <v>-0.001546938047956402</v>
+        <v>0.01776028333539829</v>
       </c>
       <c r="D84">
-        <v>-0.0002045579660552517</v>
+        <v>-0.04125641888500869</v>
       </c>
       <c r="E84">
-        <v>0.002657568505438445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.00533216511480926</v>
+      </c>
+      <c r="F84">
+        <v>-0.03202692012384423</v>
+      </c>
+      <c r="G84">
+        <v>0.02553439606906788</v>
+      </c>
+      <c r="H84">
+        <v>-0.03671420457710873</v>
+      </c>
+      <c r="I84">
+        <v>0.07458823738140556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1352393741468479</v>
+        <v>-0.05422565800567006</v>
       </c>
       <c r="C85">
-        <v>0.144957031293058</v>
+        <v>0.1771521592829178</v>
       </c>
       <c r="D85">
-        <v>0.06648573525629854</v>
+        <v>0.1103040621115471</v>
       </c>
       <c r="E85">
-        <v>-0.02413946856628174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01176135235947522</v>
+      </c>
+      <c r="F85">
+        <v>-0.06625824997269675</v>
+      </c>
+      <c r="G85">
+        <v>0.03262017331451353</v>
+      </c>
+      <c r="H85">
+        <v>-0.0005136970570048613</v>
+      </c>
+      <c r="I85">
+        <v>0.01379192326591599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02051846244849779</v>
+        <v>-0.01501260674785074</v>
       </c>
       <c r="C86">
-        <v>0.01226142509691034</v>
+        <v>0.04126046540831816</v>
       </c>
       <c r="D86">
-        <v>-0.09225071028985349</v>
+        <v>-0.10883237173505</v>
       </c>
       <c r="E86">
-        <v>-0.0421011034340903</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01406730011399706</v>
+      </c>
+      <c r="F86">
+        <v>-0.0176981010168486</v>
+      </c>
+      <c r="G86">
+        <v>-0.01899639801599951</v>
+      </c>
+      <c r="H86">
+        <v>0.01718637763263729</v>
+      </c>
+      <c r="I86">
+        <v>0.0261418391246481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02001264035410991</v>
+        <v>-0.009524395448215598</v>
       </c>
       <c r="C87">
-        <v>0.03226857314509966</v>
+        <v>0.06585396415712912</v>
       </c>
       <c r="D87">
-        <v>-0.1247845791596138</v>
+        <v>-0.1367764143302322</v>
       </c>
       <c r="E87">
-        <v>-0.08047277992371889</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.02590193366506104</v>
+      </c>
+      <c r="F87">
+        <v>-0.05014395741278634</v>
+      </c>
+      <c r="G87">
+        <v>0.01176639830400282</v>
+      </c>
+      <c r="H87">
+        <v>-0.08159251518272287</v>
+      </c>
+      <c r="I87">
+        <v>0.01788500722874533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05028835274925684</v>
+        <v>-0.03311452245621914</v>
       </c>
       <c r="C88">
-        <v>0.04630983613990459</v>
+        <v>0.06994981550648127</v>
       </c>
       <c r="D88">
-        <v>-0.00780101369098945</v>
+        <v>-0.01242736355555274</v>
       </c>
       <c r="E88">
-        <v>-0.02605180169679095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02556451472580006</v>
+      </c>
+      <c r="F88">
+        <v>-0.01946357555345215</v>
+      </c>
+      <c r="G88">
+        <v>-0.0233904859593381</v>
+      </c>
+      <c r="H88">
+        <v>0.00206061316407423</v>
+      </c>
+      <c r="I88">
+        <v>0.02569824187701904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3325930894822053</v>
+        <v>-0.4047088463029745</v>
       </c>
       <c r="C89">
-        <v>-0.3115168134938913</v>
+        <v>-0.156040274153057</v>
       </c>
       <c r="D89">
-        <v>-0.00597209303697186</v>
+        <v>-0.0452717660699387</v>
       </c>
       <c r="E89">
-        <v>-0.09685698149720401</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04725228803376559</v>
+      </c>
+      <c r="F89">
+        <v>-0.0638429231280116</v>
+      </c>
+      <c r="G89">
+        <v>-0.041319917628712</v>
+      </c>
+      <c r="H89">
+        <v>-0.1576027493503531</v>
+      </c>
+      <c r="I89">
+        <v>-0.02881969291929161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2658799573625661</v>
+        <v>-0.3207991253112851</v>
       </c>
       <c r="C90">
-        <v>-0.2264179938428377</v>
+        <v>-0.1032464843821684</v>
       </c>
       <c r="D90">
-        <v>-0.05681223196140025</v>
+        <v>-0.03380034232097284</v>
       </c>
       <c r="E90">
-        <v>-0.001950306391052408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00359947042870716</v>
+      </c>
+      <c r="F90">
+        <v>0.005128869780260965</v>
+      </c>
+      <c r="G90">
+        <v>0.05706319463461444</v>
+      </c>
+      <c r="H90">
+        <v>-0.03759203652824672</v>
+      </c>
+      <c r="I90">
+        <v>-0.000793080728195384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1456601382281264</v>
+        <v>-0.06525454159983216</v>
       </c>
       <c r="C91">
-        <v>0.1916934349234485</v>
+        <v>0.2034589805901065</v>
       </c>
       <c r="D91">
-        <v>0.1090116303826698</v>
+        <v>0.1112868628071507</v>
       </c>
       <c r="E91">
-        <v>-0.03839461020665384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07321815399763713</v>
+      </c>
+      <c r="F91">
+        <v>-0.05513593169609458</v>
+      </c>
+      <c r="G91">
+        <v>0.0121505099660673</v>
+      </c>
+      <c r="H91">
+        <v>-0.006134854738613119</v>
+      </c>
+      <c r="I91">
+        <v>-0.02298912289058873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2507346186872163</v>
+        <v>-0.3393730161191545</v>
       </c>
       <c r="C92">
-        <v>-0.2545311539027418</v>
+        <v>-0.1407942455531564</v>
       </c>
       <c r="D92">
-        <v>0.05488862000085207</v>
+        <v>-0.01866793550689278</v>
       </c>
       <c r="E92">
-        <v>-0.02189627886865455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06685401748186731</v>
+      </c>
+      <c r="F92">
+        <v>-0.04027719819566235</v>
+      </c>
+      <c r="G92">
+        <v>0.01109659147986289</v>
+      </c>
+      <c r="H92">
+        <v>0.01861579434112383</v>
+      </c>
+      <c r="I92">
+        <v>0.1410403945763624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2909954730494752</v>
+        <v>-0.3342197508178114</v>
       </c>
       <c r="C93">
-        <v>-0.2396358857886763</v>
+        <v>-0.1134302782390795</v>
       </c>
       <c r="D93">
-        <v>-0.0009581959386994682</v>
+        <v>0.01793061332646893</v>
       </c>
       <c r="E93">
-        <v>-0.009876391404837532</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02052091039366502</v>
+      </c>
+      <c r="F93">
+        <v>-0.01125771938814608</v>
+      </c>
+      <c r="G93">
+        <v>-0.003574055246338394</v>
+      </c>
+      <c r="H93">
+        <v>0.03975631837628476</v>
+      </c>
+      <c r="I93">
+        <v>0.01996024565343488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2686074283650597</v>
+        <v>-0.1178800238942664</v>
       </c>
       <c r="C94">
-        <v>0.2734555975631097</v>
+        <v>0.3307706628077763</v>
       </c>
       <c r="D94">
-        <v>0.2377005360878832</v>
+        <v>0.3493743093919133</v>
       </c>
       <c r="E94">
-        <v>0.2904319027339388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.07531212140695416</v>
+      </c>
+      <c r="F94">
+        <v>0.1284487013348392</v>
+      </c>
+      <c r="G94">
+        <v>0.2972809465250046</v>
+      </c>
+      <c r="H94">
+        <v>-0.09987178897626989</v>
+      </c>
+      <c r="I94">
+        <v>0.06905917871502418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.007124120668506347</v>
+        <v>-0.01281234052930253</v>
       </c>
       <c r="C95">
-        <v>0.03933546339642099</v>
+        <v>0.06544441237121311</v>
       </c>
       <c r="D95">
-        <v>-0.0007136377199767998</v>
+        <v>-0.1055170294667854</v>
       </c>
       <c r="E95">
-        <v>-0.01848150939739986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1380097580210692</v>
+      </c>
+      <c r="F95">
+        <v>0.03721513902216291</v>
+      </c>
+      <c r="G95">
+        <v>-0.2284113847325832</v>
+      </c>
+      <c r="H95">
+        <v>-0.1526275387457456</v>
+      </c>
+      <c r="I95">
+        <v>0.2068597436804823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001693423210411705</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.000952713030555351</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0003860653810224892</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003320462782366277</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004306666934701081</v>
+      </c>
+      <c r="G97">
+        <v>-0.000590103820942203</v>
+      </c>
+      <c r="H97">
+        <v>-0.001265943801918912</v>
+      </c>
+      <c r="I97">
+        <v>0.007044370302248673</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1531893231627201</v>
+        <v>-0.1305388516403588</v>
       </c>
       <c r="C98">
-        <v>0.09519584485119834</v>
+        <v>0.1630610080004034</v>
       </c>
       <c r="D98">
-        <v>-0.1644473245889723</v>
+        <v>-0.0431635459172274</v>
       </c>
       <c r="E98">
-        <v>0.1053929787508395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1880409863190791</v>
+      </c>
+      <c r="F98">
+        <v>0.2334952525867745</v>
+      </c>
+      <c r="G98">
+        <v>-0.1685592530371223</v>
+      </c>
+      <c r="H98">
+        <v>0.2495391546348682</v>
+      </c>
+      <c r="I98">
+        <v>-0.1975008705316022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002664373840374136</v>
+        <v>-0.001592339832080209</v>
       </c>
       <c r="C101">
-        <v>0.02272855265427655</v>
+        <v>0.04028570292902513</v>
       </c>
       <c r="D101">
-        <v>-0.07618290599481656</v>
+        <v>-0.08973137889428209</v>
       </c>
       <c r="E101">
-        <v>-0.03910705983324834</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.07096848604098258</v>
+      </c>
+      <c r="F101">
+        <v>-0.03036993493729383</v>
+      </c>
+      <c r="G101">
+        <v>-0.1034905515684635</v>
+      </c>
+      <c r="H101">
+        <v>-0.1318685686215842</v>
+      </c>
+      <c r="I101">
+        <v>0.04336178543443441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09870320030511864</v>
+        <v>-0.02474458493383002</v>
       </c>
       <c r="C102">
-        <v>0.1610163931069455</v>
+        <v>0.1428503313980549</v>
       </c>
       <c r="D102">
-        <v>0.05034129438501136</v>
+        <v>0.1035889273924673</v>
       </c>
       <c r="E102">
-        <v>0.1022543370260153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04807891015679727</v>
+      </c>
+      <c r="F102">
+        <v>0.08187817001391384</v>
+      </c>
+      <c r="G102">
+        <v>-0.01068198718209814</v>
+      </c>
+      <c r="H102">
+        <v>-0.03800001030413383</v>
+      </c>
+      <c r="I102">
+        <v>-0.002670743784310112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
